--- a/testData/auth_method_test_data.xlsx
+++ b/testData/auth_method_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,14 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,6 +463,10 @@
   </si>
   <si>
     <t>radius认证配置主地址格式不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrrz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,10 +962,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -983,53 +979,45 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6"/>
@@ -1051,15 +1039,15 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="13"/>
       <c r="F7" s="6"/>
     </row>
@@ -1067,15 +1055,15 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="14"/>
       <c r="F9" s="6"/>
     </row>
@@ -1083,16 +1071,16 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
@@ -1174,14 +1162,6 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1213,31 +1193,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>3</v>
@@ -1588,22 +1568,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1687,22 +1667,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1713,7 +1693,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1728,7 +1708,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>25</v>
@@ -1745,7 +1725,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>26</v>
@@ -1861,7 +1841,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -1888,8 +1868,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1977,7 +1957,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>58</v>
@@ -2149,22 +2129,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>2</v>
